--- a/导表工具/Excels/角色表.xlsx
+++ b/导表工具/Excels/角色表.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10713"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xuanguo/Game/HEDAO/导表工具/Excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76A3FB92-A748-BB44-A71F-03E0A28DF87D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34788956-26D6-1A43-A87B-8D7ED28140A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t>##</t>
   </si>
@@ -105,6 +105,10 @@
   </si>
   <si>
     <t>江湖侠士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>soldier</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -489,7 +493,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="108" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
@@ -589,6 +593,9 @@
       <c r="D5" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="E5" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="F5" s="1">
         <v>10</v>
       </c>

--- a/导表工具/Excels/角色表.xlsx
+++ b/导表工具/Excels/角色表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xuanguo/Game/HEDAO/导表工具/Excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34788956-26D6-1A43-A87B-8D7ED28140A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AA118B3-E68F-4E43-ADD1-2F6A174645DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,87 +28,136 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
   <si>
     <t>##</t>
   </si>
   <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Desc</t>
+  </si>
+  <si>
+    <t>##type</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>编号</t>
+  </si>
+  <si>
+    <t>名字</t>
+  </si>
+  <si>
+    <t>简介</t>
+  </si>
+  <si>
+    <t>Attribute</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BaseAttribute</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>##var</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>侠客</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>江湖侠士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>soldier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxHP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大生命值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大灵气值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxQI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TPO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SSI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>力量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>体魄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MoveSkillId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动技能Id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillSet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能集合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>set,int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Id</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Desc</t>
-  </si>
-  <si>
-    <t>##type</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>编号</t>
-  </si>
-  <si>
-    <t>名字</t>
-  </si>
-  <si>
-    <t>简介</t>
-  </si>
-  <si>
-    <t>Attribute</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BaseAttribute</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>图片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>##var</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>QI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生命值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>灵气值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>侠客</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>江湖侠士</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>soldier</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -161,7 +210,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -184,6 +233,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -193,7 +279,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -206,7 +292,13 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -490,10 +582,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="108" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
@@ -504,97 +596,147 @@
     <col min="5" max="5" width="11.83203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="12" style="1" customWidth="1"/>
     <col min="7" max="7" width="11.33203125" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.1640625" style="1"/>
+    <col min="8" max="10" width="9.1640625" style="1"/>
+    <col min="11" max="11" width="13" style="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1">
+    <row r="1" spans="1:13" s="3" customFormat="1">
       <c r="A1" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="M1" s="6"/>
+    </row>
+    <row r="2" spans="1:13" s="3" customFormat="1">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="4"/>
+      <c r="D2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" s="6"/>
     </row>
-    <row r="2" spans="1:7" s="3" customFormat="1">
-      <c r="A2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="4"/>
+    <row r="3" spans="1:13" s="3" customFormat="1">
+      <c r="A3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" s="4"/>
+      <c r="M3" s="6"/>
     </row>
-    <row r="3" spans="1:7" s="3" customFormat="1">
-      <c r="A3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" s="3" customFormat="1">
+    <row r="4" spans="1:13" s="3" customFormat="1">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>9</v>
-      </c>
       <c r="E4" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>19</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="M4" s="6"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:13">
       <c r="B5" s="1">
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F5" s="1">
         <v>10</v>
@@ -602,11 +744,30 @@
       <c r="G5" s="1">
         <v>10</v>
       </c>
+      <c r="H5" s="1">
+        <v>3</v>
+      </c>
+      <c r="I5" s="1">
+        <v>3</v>
+      </c>
+      <c r="J5" s="1">
+        <v>3</v>
+      </c>
+      <c r="K5" s="1">
+        <v>1</v>
+      </c>
+      <c r="L5" s="2">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="F2:G2"/>
+  <mergeCells count="6">
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="L1:M1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>

--- a/导表工具/Excels/角色表.xlsx
+++ b/导表工具/Excels/角色表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xuanguo/Game/HEDAO/导表工具/Excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AA118B3-E68F-4E43-ADD1-2F6A174645DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD25A23A-BCD6-E041-96D7-04ECDBF7EF0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
   <si>
     <t>##</t>
   </si>
@@ -158,6 +158,14 @@
   </si>
   <si>
     <t>Id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>master</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>练气士</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -582,10 +590,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="108" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
@@ -739,10 +747,10 @@
         <v>17</v>
       </c>
       <c r="F5" s="1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G5" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H5" s="1">
         <v>3</v>
@@ -754,10 +762,49 @@
         <v>3</v>
       </c>
       <c r="K5" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5" s="2">
         <v>1</v>
+      </c>
+      <c r="M5" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="B6" s="1">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="1">
+        <v>12</v>
+      </c>
+      <c r="G6" s="1">
+        <v>30</v>
+      </c>
+      <c r="H6" s="1">
+        <v>2</v>
+      </c>
+      <c r="I6" s="1">
+        <v>2</v>
+      </c>
+      <c r="J6" s="1">
+        <v>5</v>
+      </c>
+      <c r="K6" s="1">
+        <v>1</v>
+      </c>
+      <c r="L6" s="1">
+        <v>2</v>
+      </c>
+      <c r="M6" s="1">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/导表工具/Excels/角色表.xlsx
+++ b/导表工具/Excels/角色表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11011"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xuanguo/Game/HEDAO/导表工具/Excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD25A23A-BCD6-E041-96D7-04ECDBF7EF0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C246EB7-E9D2-E341-9603-37F2D1216E63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="角色表" sheetId="4" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
   <si>
     <t>##</t>
   </si>
@@ -57,14 +57,6 @@
     <t>简介</t>
   </si>
   <si>
-    <t>Attribute</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BaseAttribute</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Image</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -166,6 +158,22 @@
   </si>
   <si>
     <t>练气士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Property</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BaseProperty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -590,10 +598,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="108" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
@@ -601,21 +609,21 @@
     <col min="1" max="2" width="9.1640625" style="1"/>
     <col min="3" max="3" width="11.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="34.1640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.83203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" style="1" customWidth="1"/>
-    <col min="8" max="10" width="9.1640625" style="1"/>
-    <col min="11" max="11" width="13" style="1" customWidth="1"/>
-    <col min="12" max="12" width="10.5" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.1640625" style="1"/>
+    <col min="5" max="6" width="11.83203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" style="1" customWidth="1"/>
+    <col min="9" max="11" width="9.1640625" style="1"/>
+    <col min="12" max="12" width="13" style="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="3" customFormat="1">
+    <row r="1" spans="1:14" s="3" customFormat="1">
       <c r="A1" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
@@ -624,24 +632,25 @@
         <v>2</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="M1" s="6"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="N1" s="6"/>
     </row>
-    <row r="2" spans="1:13" s="3" customFormat="1">
+    <row r="2" spans="1:14" s="3" customFormat="1">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -649,52 +658,56 @@
         <v>4</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="M2" s="6"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="N2" s="6"/>
     </row>
-    <row r="3" spans="1:13" s="3" customFormat="1">
+    <row r="3" spans="1:14" s="3" customFormat="1">
       <c r="A3" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L3" s="4"/>
-      <c r="M3" s="6"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="6"/>
     </row>
-    <row r="4" spans="1:13" s="3" customFormat="1">
+    <row r="4" spans="1:14" s="3" customFormat="1">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
@@ -708,43 +721,46 @@
         <v>8</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="I4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="K4" s="3" t="s">
+      <c r="L4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="L4" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:14">
       <c r="B5" s="1">
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="F5" s="1">
         <v>15</v>
@@ -762,25 +778,28 @@
         <v>3</v>
       </c>
       <c r="K5" s="1">
+        <v>3</v>
+      </c>
+      <c r="L5" s="1">
         <v>2</v>
       </c>
-      <c r="L5" s="2">
+      <c r="M5" s="2">
         <v>1</v>
       </c>
-      <c r="M5" s="1">
+      <c r="N5" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:14">
       <c r="B6" s="1">
         <v>2</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F6" s="1">
         <v>12</v>
@@ -789,32 +808,35 @@
         <v>30</v>
       </c>
       <c r="H6" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" s="1">
         <v>2</v>
       </c>
       <c r="J6" s="1">
+        <v>2</v>
+      </c>
+      <c r="K6" s="1">
         <v>5</v>
       </c>
-      <c r="K6" s="1">
+      <c r="L6" s="1">
         <v>1</v>
       </c>
-      <c r="L6" s="1">
+      <c r="M6" s="1">
         <v>2</v>
       </c>
-      <c r="M6" s="1">
+      <c r="N6" s="1">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="F2:J2"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="F2:K2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
